--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L3_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L3_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="494">
   <si>
     <t>TestCases</t>
   </si>
@@ -1171,6 +1171,360 @@
   </si>
   <si>
     <t>IDEP147647552958W7AZ</t>
+  </si>
+  <si>
+    <t>7104634718</t>
+  </si>
+  <si>
+    <t>Padama</t>
+  </si>
+  <si>
+    <t>TanayChaudhari35127@example.net</t>
+  </si>
+  <si>
+    <t>1982-09-02</t>
+  </si>
+  <si>
+    <t>827689128869691</t>
+  </si>
+  <si>
+    <t>91c02189ad21e6ed</t>
+  </si>
+  <si>
+    <t>664832225552648</t>
+  </si>
+  <si>
+    <t>6499808632</t>
+  </si>
+  <si>
+    <t>Pushpa</t>
+  </si>
+  <si>
+    <t>BirenNair45886@example.net</t>
+  </si>
+  <si>
+    <t>1993-01-20</t>
+  </si>
+  <si>
+    <t>247911057067457</t>
+  </si>
+  <si>
+    <t>8bbb524ff4b459f7</t>
+  </si>
+  <si>
+    <t>627829260104190</t>
+  </si>
+  <si>
+    <t>7111461051</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>AlexBaral80578@example.net</t>
+  </si>
+  <si>
+    <t>1985-01-11</t>
+  </si>
+  <si>
+    <t>731624689638875</t>
+  </si>
+  <si>
+    <t>0cc13a67f3a03fdf</t>
+  </si>
+  <si>
+    <t>075172832749862</t>
+  </si>
+  <si>
+    <t>IDEP716433358958WRD9</t>
+  </si>
+  <si>
+    <t>8001306639</t>
+  </si>
+  <si>
+    <t>Ruchi</t>
+  </si>
+  <si>
+    <t>HarpreetPillay62959@example.net</t>
+  </si>
+  <si>
+    <t>1989-06-27</t>
+  </si>
+  <si>
+    <t>184049561685947</t>
+  </si>
+  <si>
+    <t>d03ffa5fa98db483</t>
+  </si>
+  <si>
+    <t>371784046266235</t>
+  </si>
+  <si>
+    <t>IDEP61473828883939TJ</t>
+  </si>
+  <si>
+    <t>6838083358</t>
+  </si>
+  <si>
+    <t>Preshita</t>
+  </si>
+  <si>
+    <t>TabeedSood69842@example.net</t>
+  </si>
+  <si>
+    <t>1986-06-17</t>
+  </si>
+  <si>
+    <t>573805415067932</t>
+  </si>
+  <si>
+    <t>596e214ae2fcf7d8</t>
+  </si>
+  <si>
+    <t>417342968830342</t>
+  </si>
+  <si>
+    <t>IDEP176443537911H8ZI</t>
+  </si>
+  <si>
+    <t>8962078695</t>
+  </si>
+  <si>
+    <t>Anshu</t>
+  </si>
+  <si>
+    <t>RatanPersad61385@example.net</t>
+  </si>
+  <si>
+    <t>1992-02-26</t>
+  </si>
+  <si>
+    <t>164023049298072</t>
+  </si>
+  <si>
+    <t>b3c9fde8f5f5ebb8</t>
+  </si>
+  <si>
+    <t>375981913777874</t>
+  </si>
+  <si>
+    <t>IDEP641743629892WKSD</t>
+  </si>
+  <si>
+    <t>7683757277</t>
+  </si>
+  <si>
+    <t>Laveena</t>
+  </si>
+  <si>
+    <t>AslamRajagopal73592@example.net</t>
+  </si>
+  <si>
+    <t>1995-03-22</t>
+  </si>
+  <si>
+    <t>272923025659602</t>
+  </si>
+  <si>
+    <t>83eee3e64c9475b0</t>
+  </si>
+  <si>
+    <t>341102016463095</t>
+  </si>
+  <si>
+    <t>IDEP4671443589913PS7</t>
+  </si>
+  <si>
+    <t>9506677024</t>
+  </si>
+  <si>
+    <t>Nikita</t>
+  </si>
+  <si>
+    <t>NavalWali14219@example.net</t>
+  </si>
+  <si>
+    <t>1993-02-18</t>
+  </si>
+  <si>
+    <t>762633879290449</t>
+  </si>
+  <si>
+    <t>554f3b836c744506</t>
+  </si>
+  <si>
+    <t>052142577274423</t>
+  </si>
+  <si>
+    <t>IDEP741645213948TOF9</t>
+  </si>
+  <si>
+    <t>6049557183</t>
+  </si>
+  <si>
+    <t>Kalyani</t>
+  </si>
+  <si>
+    <t>RamGopalKabra23660@example.net</t>
+  </si>
+  <si>
+    <t>1978-11-04</t>
+  </si>
+  <si>
+    <t>292308427591965</t>
+  </si>
+  <si>
+    <t>6ba3777bc53860e2</t>
+  </si>
+  <si>
+    <t>820494449087124</t>
+  </si>
+  <si>
+    <t>8425593248</t>
+  </si>
+  <si>
+    <t>Ragini</t>
+  </si>
+  <si>
+    <t>FarazMutti68712@example.net</t>
+  </si>
+  <si>
+    <t>1990-01-04</t>
+  </si>
+  <si>
+    <t>225662382638878</t>
+  </si>
+  <si>
+    <t>ba6fc1d57d468987</t>
+  </si>
+  <si>
+    <t>149504661199326</t>
+  </si>
+  <si>
+    <t>6799931989</t>
+  </si>
+  <si>
+    <t>Chandni</t>
+  </si>
+  <si>
+    <t>HimanshuGade99077@example.net</t>
+  </si>
+  <si>
+    <t>1975-06-22</t>
+  </si>
+  <si>
+    <t>292403738838005</t>
+  </si>
+  <si>
+    <t>116f35bb19306cfa</t>
+  </si>
+  <si>
+    <t>394567422060105</t>
+  </si>
+  <si>
+    <t>9869446399</t>
+  </si>
+  <si>
+    <t>Fatima</t>
+  </si>
+  <si>
+    <t>ChinmayMogul56637@example.net</t>
+  </si>
+  <si>
+    <t>1985-01-03</t>
+  </si>
+  <si>
+    <t>876582796384517</t>
+  </si>
+  <si>
+    <t>2a7c9cf22f69ea07</t>
+  </si>
+  <si>
+    <t>197526627662361</t>
+  </si>
+  <si>
+    <t>8839836322</t>
+  </si>
+  <si>
+    <t>MotiRam63729@example.net</t>
+  </si>
+  <si>
+    <t>1992-06-06</t>
+  </si>
+  <si>
+    <t>925424067705826</t>
+  </si>
+  <si>
+    <t>9046e3a1dfdbb165</t>
+  </si>
+  <si>
+    <t>119024948726946</t>
+  </si>
+  <si>
+    <t>6408508493</t>
+  </si>
+  <si>
+    <t>NawabDhar69492@example.net</t>
+  </si>
+  <si>
+    <t>1973-05-16</t>
+  </si>
+  <si>
+    <t>902348565758135</t>
+  </si>
+  <si>
+    <t>b2b5ec1618f1fbe8</t>
+  </si>
+  <si>
+    <t>885097350306201</t>
+  </si>
+  <si>
+    <t>7332110117</t>
+  </si>
+  <si>
+    <t>Sushmita</t>
+  </si>
+  <si>
+    <t>BaalkrishanNaruka30626@example.net</t>
+  </si>
+  <si>
+    <t>1984-10-15</t>
+  </si>
+  <si>
+    <t>507548411794981</t>
+  </si>
+  <si>
+    <t>dff3826774149414</t>
+  </si>
+  <si>
+    <t>311077576301891</t>
+  </si>
+  <si>
+    <t>IDEP675163818482WFHO</t>
+  </si>
+  <si>
+    <t>9782285719</t>
+  </si>
+  <si>
+    <t>Hema</t>
+  </si>
+  <si>
+    <t>MohanlalNaik34429@example.net</t>
+  </si>
+  <si>
+    <t>1989-07-05</t>
+  </si>
+  <si>
+    <t>133164155071974</t>
+  </si>
+  <si>
+    <t>cc23a8f10e9b5358</t>
+  </si>
+  <si>
+    <t>250287434720728</t>
+  </si>
+  <si>
+    <t>IDEP6175645368386932</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +2020,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>369</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1786,7 +2140,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>375</v>
+        <v>493</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2235,16 +2589,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>491</v>
       </c>
       <c r="C2" t="s">
-        <v>374</v>
+        <v>492</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>372</v>
+        <v>490</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2463,13 +2817,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>317</v>
+        <v>487</v>
       </c>
       <c r="E2" t="s">
-        <v>370</v>
+        <v>488</v>
       </c>
       <c r="F2" t="s">
-        <v>371</v>
+        <v>489</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3016,10 +3370,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>369</v>
+        <v>486</v>
       </c>
       <c r="E2" t="s">
-        <v>370</v>
+        <v>488</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3031,7 +3385,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>372</v>
+        <v>490</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3040,10 +3394,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>375</v>
+        <v>493</v>
       </c>
       <c r="M2" t="n">
-        <v>4221481.0</v>
+        <v>4224457.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3199,7 +3553,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>369</v>
+        <v>486</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3216,7 +3570,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>369</v>
+        <v>486</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3233,7 +3587,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>369</v>
+        <v>486</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3250,7 +3604,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>369</v>
+        <v>486</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3267,7 +3621,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>369</v>
+        <v>486</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3353,7 +3707,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>372</v>
+        <v>490</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -3597,7 +3951,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>372</v>
+        <v>490</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -3812,7 +4166,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>317</v>
+        <v>487</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -3895,7 +4249,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>375</v>
+        <v>493</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4193,7 +4547,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>375</v>
+        <v>493</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4213,7 +4567,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>493</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4233,7 +4587,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>375</v>
+        <v>493</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4253,7 +4607,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>493</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4273,7 +4627,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>493</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4293,7 +4647,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>375</v>
+        <v>493</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4313,7 +4667,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>375</v>
+        <v>493</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L3_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L3_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="501">
   <si>
     <t>TestCases</t>
   </si>
@@ -1525,6 +1525,27 @@
   </si>
   <si>
     <t>IDEP6175645368386932</t>
+  </si>
+  <si>
+    <t>9415390674</t>
+  </si>
+  <si>
+    <t>Leela</t>
+  </si>
+  <si>
+    <t>HabibSharaf17129@example.net</t>
+  </si>
+  <si>
+    <t>1975-03-13</t>
+  </si>
+  <si>
+    <t>235078259493644</t>
+  </si>
+  <si>
+    <t>1df325523a177c49</t>
+  </si>
+  <si>
+    <t>864756511364780</t>
   </si>
 </sst>
 </file>
@@ -2020,7 +2041,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2139,9 +2160,7 @@
       <c r="A2" t="s">
         <v>129</v>
       </c>
-      <c r="B2" t="s">
-        <v>493</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" t="s">
         <v>240</v>
       </c>
@@ -2589,16 +2608,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C2" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2817,13 +2836,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="E2" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="F2" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3370,10 +3389,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="E2" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3385,7 +3404,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3393,9 +3412,7 @@
       <c r="K2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L2" t="s">
-        <v>493</v>
-      </c>
+      <c r="L2"/>
       <c r="M2" t="n">
         <v>4224457.0</v>
       </c>
@@ -3553,7 +3570,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3570,7 +3587,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3587,7 +3604,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3604,7 +3621,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3621,7 +3638,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3707,7 +3724,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -3951,7 +3968,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4166,7 +4183,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4248,9 +4265,7 @@
       <c r="A2" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B2" t="s">
-        <v>493</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" s="18" t="s">
         <v>110</v>
       </c>
@@ -4546,9 +4561,7 @@
       <c r="A2" t="s">
         <v>214</v>
       </c>
-      <c r="B2" t="s">
-        <v>493</v>
-      </c>
+      <c r="B2"/>
       <c r="C2">
         <v>303</v>
       </c>
@@ -4566,9 +4579,7 @@
       <c r="A3" t="s">
         <v>216</v>
       </c>
-      <c r="B3" t="s">
-        <v>493</v>
-      </c>
+      <c r="B3"/>
       <c r="C3">
         <v>563</v>
       </c>
@@ -4586,9 +4597,7 @@
       <c r="A4" t="s">
         <v>223</v>
       </c>
-      <c r="B4" t="s">
-        <v>493</v>
-      </c>
+      <c r="B4"/>
       <c r="C4">
         <v>590</v>
       </c>
@@ -4606,9 +4615,7 @@
       <c r="A5" t="s">
         <v>224</v>
       </c>
-      <c r="B5" t="s">
-        <v>493</v>
-      </c>
+      <c r="B5"/>
       <c r="C5">
         <v>668</v>
       </c>
@@ -4626,9 +4633,7 @@
       <c r="A6" t="s">
         <v>225</v>
       </c>
-      <c r="B6" t="s">
-        <v>493</v>
-      </c>
+      <c r="B6"/>
       <c r="C6">
         <v>725</v>
       </c>
@@ -4646,9 +4651,7 @@
       <c r="A7" t="s">
         <v>226</v>
       </c>
-      <c r="B7" t="s">
-        <v>493</v>
-      </c>
+      <c r="B7"/>
       <c r="C7">
         <v>800</v>
       </c>
@@ -4666,9 +4669,7 @@
       <c r="A8" t="s">
         <v>229</v>
       </c>
-      <c r="B8" t="s">
-        <v>493</v>
-      </c>
+      <c r="B8"/>
       <c r="C8">
         <v>725</v>
       </c>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L3_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L3_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="508">
   <si>
     <t>TestCases</t>
   </si>
@@ -1546,6 +1546,27 @@
   </si>
   <si>
     <t>864756511364780</t>
+  </si>
+  <si>
+    <t>9138351064</t>
+  </si>
+  <si>
+    <t>Madhu</t>
+  </si>
+  <si>
+    <t>KailashTara22164@example.net</t>
+  </si>
+  <si>
+    <t>1992-04-10</t>
+  </si>
+  <si>
+    <t>784696069396346</t>
+  </si>
+  <si>
+    <t>a433a23f5e921a1d</t>
+  </si>
+  <si>
+    <t>931166669928064</t>
   </si>
 </sst>
 </file>
@@ -2041,7 +2062,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2608,16 +2629,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="C2" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2836,13 +2857,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="E2" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="F2" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3389,10 +3410,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="E2" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3404,7 +3425,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3570,7 +3591,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3587,7 +3608,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3604,7 +3625,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3621,7 +3642,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3638,7 +3659,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3724,7 +3745,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -3968,7 +3989,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4183,7 +4204,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L3_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L3_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="529">
   <si>
     <t>TestCases</t>
   </si>
@@ -1567,6 +1567,69 @@
   </si>
   <si>
     <t>931166669928064</t>
+  </si>
+  <si>
+    <t>9372645750</t>
+  </si>
+  <si>
+    <t>Aabha</t>
+  </si>
+  <si>
+    <t>SubhashSengupta29649@example.net</t>
+  </si>
+  <si>
+    <t>1993-07-21</t>
+  </si>
+  <si>
+    <t>770479893148274</t>
+  </si>
+  <si>
+    <t>57664d20fdeed21f</t>
+  </si>
+  <si>
+    <t>608551523698528</t>
+  </si>
+  <si>
+    <t>9802204308</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>JavedNaik87566@example.net</t>
+  </si>
+  <si>
+    <t>1992-03-28</t>
+  </si>
+  <si>
+    <t>374915137406663</t>
+  </si>
+  <si>
+    <t>a11bf351e14fddcc</t>
+  </si>
+  <si>
+    <t>831494053919833</t>
+  </si>
+  <si>
+    <t>6492296897</t>
+  </si>
+  <si>
+    <t>Nishita</t>
+  </si>
+  <si>
+    <t>MotiBinnani94355@example.net</t>
+  </si>
+  <si>
+    <t>1995-03-13</t>
+  </si>
+  <si>
+    <t>851673658945005</t>
+  </si>
+  <si>
+    <t>70bd09bf89f8ba13</t>
+  </si>
+  <si>
+    <t>064824291928717</t>
   </si>
 </sst>
 </file>
@@ -2062,7 +2125,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2629,16 +2692,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="C2" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2857,13 +2920,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="E2" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="F2" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3410,10 +3473,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="E2" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3425,7 +3488,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3591,7 +3654,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3608,7 +3671,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3625,7 +3688,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3642,7 +3705,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3659,7 +3722,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3745,7 +3808,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -3989,7 +4052,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4204,7 +4267,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L3_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L3_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="549">
   <si>
     <t>TestCases</t>
   </si>
@@ -1630,6 +1630,66 @@
   </si>
   <si>
     <t>064824291928717</t>
+  </si>
+  <si>
+    <t>6352975209</t>
+  </si>
+  <si>
+    <t>Ritika</t>
+  </si>
+  <si>
+    <t>ArunGuha46178@example.net</t>
+  </si>
+  <si>
+    <t>1984-03-31</t>
+  </si>
+  <si>
+    <t>237755671239303</t>
+  </si>
+  <si>
+    <t>db591bfc2e735263</t>
+  </si>
+  <si>
+    <t>372797645175747</t>
+  </si>
+  <si>
+    <t>6220374806</t>
+  </si>
+  <si>
+    <t>RadheHari12290@example.net</t>
+  </si>
+  <si>
+    <t>1976-10-27</t>
+  </si>
+  <si>
+    <t>071520956961420</t>
+  </si>
+  <si>
+    <t>86e245778cf883ea</t>
+  </si>
+  <si>
+    <t>715923895054855</t>
+  </si>
+  <si>
+    <t>7202281104</t>
+  </si>
+  <si>
+    <t>Divya</t>
+  </si>
+  <si>
+    <t>SaurabhKoshy41284@example.net</t>
+  </si>
+  <si>
+    <t>1973-02-05</t>
+  </si>
+  <si>
+    <t>660720677558383</t>
+  </si>
+  <si>
+    <t>2e40e2d94cb5ac25</t>
+  </si>
+  <si>
+    <t>601125111934913</t>
   </si>
 </sst>
 </file>
@@ -2125,7 +2185,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2692,16 +2752,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="C2" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2920,13 +2980,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="E2" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="F2" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3473,10 +3533,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="E2" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3488,7 +3548,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3654,7 +3714,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3671,7 +3731,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3688,7 +3748,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3705,7 +3765,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3722,7 +3782,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3808,7 +3868,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4052,7 +4112,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4267,7 +4327,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L3_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L3_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="582">
   <si>
     <t>TestCases</t>
   </si>
@@ -1690,6 +1690,105 @@
   </si>
   <si>
     <t>601125111934913</t>
+  </si>
+  <si>
+    <t>7560111951</t>
+  </si>
+  <si>
+    <t>Indira</t>
+  </si>
+  <si>
+    <t>RajeshSankar40712@example.net</t>
+  </si>
+  <si>
+    <t>1993-07-24</t>
+  </si>
+  <si>
+    <t>437413089182719</t>
+  </si>
+  <si>
+    <t>600e24e9edf7f59f</t>
+  </si>
+  <si>
+    <t>025205822437469</t>
+  </si>
+  <si>
+    <t>8593605593</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>KamleshMurty21512@example.net</t>
+  </si>
+  <si>
+    <t>1971-11-28</t>
+  </si>
+  <si>
+    <t>532149674754553</t>
+  </si>
+  <si>
+    <t>5ad48c17aafb52f4</t>
+  </si>
+  <si>
+    <t>547815870025658</t>
+  </si>
+  <si>
+    <t>7690916882</t>
+  </si>
+  <si>
+    <t>VickyNarine72929@example.net</t>
+  </si>
+  <si>
+    <t>1982-04-01</t>
+  </si>
+  <si>
+    <t>341100123772523</t>
+  </si>
+  <si>
+    <t>a317feeff82366ff</t>
+  </si>
+  <si>
+    <t>810253217964530</t>
+  </si>
+  <si>
+    <t>8591926033</t>
+  </si>
+  <si>
+    <t>SushantNarine59432@example.net</t>
+  </si>
+  <si>
+    <t>1976-02-07</t>
+  </si>
+  <si>
+    <t>923208662237042</t>
+  </si>
+  <si>
+    <t>e928e7503b3e3919</t>
+  </si>
+  <si>
+    <t>671689337200651</t>
+  </si>
+  <si>
+    <t>8667615095</t>
+  </si>
+  <si>
+    <t>Bhanupriya</t>
+  </si>
+  <si>
+    <t>AslamSaran66820@example.net</t>
+  </si>
+  <si>
+    <t>1974-11-05</t>
+  </si>
+  <si>
+    <t>906314144504297</t>
+  </si>
+  <si>
+    <t>628b5bf557fbcfaa</t>
+  </si>
+  <si>
+    <t>028276442406868</t>
   </si>
 </sst>
 </file>
@@ -2185,7 +2284,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2752,16 +2851,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="C2" t="s">
-        <v>548</v>
+        <v>581</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>546</v>
+        <v>579</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2980,13 +3079,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="E2" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
       <c r="F2" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3533,10 +3632,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="E2" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3548,7 +3647,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>546</v>
+        <v>579</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3714,7 +3813,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3731,7 +3830,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3748,7 +3847,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3765,7 +3864,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3782,7 +3881,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3868,7 +3967,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>546</v>
+        <v>579</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4112,7 +4211,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>546</v>
+        <v>579</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4327,7 +4426,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L3_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L3_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="709">
   <si>
     <t>TestCases</t>
   </si>
@@ -1789,6 +1789,387 @@
   </si>
   <si>
     <t>028276442406868</t>
+  </si>
+  <si>
+    <t>6100165735</t>
+  </si>
+  <si>
+    <t>Shobha</t>
+  </si>
+  <si>
+    <t>BahadurKhurana74302@example.net</t>
+  </si>
+  <si>
+    <t>1970-04-08</t>
+  </si>
+  <si>
+    <t>467350698381840</t>
+  </si>
+  <si>
+    <t>ea3761b1f20cb016</t>
+  </si>
+  <si>
+    <t>543571843624911</t>
+  </si>
+  <si>
+    <t>7824965712</t>
+  </si>
+  <si>
+    <t>Esha</t>
+  </si>
+  <si>
+    <t>GulzarGarde98490@example.net</t>
+  </si>
+  <si>
+    <t>1982-12-21</t>
+  </si>
+  <si>
+    <t>779235783849236</t>
+  </si>
+  <si>
+    <t>abedb4be0cfcba4f</t>
+  </si>
+  <si>
+    <t>256611200655962</t>
+  </si>
+  <si>
+    <t>6111956028</t>
+  </si>
+  <si>
+    <t>Naina</t>
+  </si>
+  <si>
+    <t>RashidSant29481@example.net</t>
+  </si>
+  <si>
+    <t>1974-06-22</t>
+  </si>
+  <si>
+    <t>723172672858324</t>
+  </si>
+  <si>
+    <t>fedb75792f15fadd</t>
+  </si>
+  <si>
+    <t>031779242195610</t>
+  </si>
+  <si>
+    <t>8005082272</t>
+  </si>
+  <si>
+    <t>Savita</t>
+  </si>
+  <si>
+    <t>HarpreetSangha91561@example.net</t>
+  </si>
+  <si>
+    <t>1986-10-04</t>
+  </si>
+  <si>
+    <t>921687670490994</t>
+  </si>
+  <si>
+    <t>7bf423115c4e063f</t>
+  </si>
+  <si>
+    <t>370207516245506</t>
+  </si>
+  <si>
+    <t>9058449074</t>
+  </si>
+  <si>
+    <t>Farah</t>
+  </si>
+  <si>
+    <t>DevendraPrakash99886@example.net</t>
+  </si>
+  <si>
+    <t>1992-09-04</t>
+  </si>
+  <si>
+    <t>779020792662964</t>
+  </si>
+  <si>
+    <t>adbda6d41ed22899</t>
+  </si>
+  <si>
+    <t>306356004320856</t>
+  </si>
+  <si>
+    <t>7178016334</t>
+  </si>
+  <si>
+    <t>Riddhi</t>
+  </si>
+  <si>
+    <t>BholaChaudhuri98663@example.net</t>
+  </si>
+  <si>
+    <t>1985-11-09</t>
+  </si>
+  <si>
+    <t>061587086988005</t>
+  </si>
+  <si>
+    <t>6aaad3eddb4909f6</t>
+  </si>
+  <si>
+    <t>372772607965674</t>
+  </si>
+  <si>
+    <t>6948246421</t>
+  </si>
+  <si>
+    <t>Shanti</t>
+  </si>
+  <si>
+    <t>PreetManne73160@example.net</t>
+  </si>
+  <si>
+    <t>1974-09-27</t>
+  </si>
+  <si>
+    <t>485158799685557</t>
+  </si>
+  <si>
+    <t>1532bf2837c3a444</t>
+  </si>
+  <si>
+    <t>179017203856892</t>
+  </si>
+  <si>
+    <t>6750262083</t>
+  </si>
+  <si>
+    <t>YaduDad80467@example.net</t>
+  </si>
+  <si>
+    <t>1981-02-27</t>
+  </si>
+  <si>
+    <t>170581068912321</t>
+  </si>
+  <si>
+    <t>3ccfad8fb3a8a8a3</t>
+  </si>
+  <si>
+    <t>615984435399581</t>
+  </si>
+  <si>
+    <t>6275852541</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
+  </si>
+  <si>
+    <t>NitinGour21871@example.net</t>
+  </si>
+  <si>
+    <t>1972-09-20</t>
+  </si>
+  <si>
+    <t>623980935294421</t>
+  </si>
+  <si>
+    <t>861adb2b640facf3</t>
+  </si>
+  <si>
+    <t>033490782188043</t>
+  </si>
+  <si>
+    <t>7646681972</t>
+  </si>
+  <si>
+    <t>AniruddhMehra48648@example.net</t>
+  </si>
+  <si>
+    <t>1979-04-16</t>
+  </si>
+  <si>
+    <t>975228437722299</t>
+  </si>
+  <si>
+    <t>5ecb975ff55a0d67</t>
+  </si>
+  <si>
+    <t>399933174210030</t>
+  </si>
+  <si>
+    <t>8534499767</t>
+  </si>
+  <si>
+    <t>Radha</t>
+  </si>
+  <si>
+    <t>NawabNigam66291@example.net</t>
+  </si>
+  <si>
+    <t>1970-11-30</t>
+  </si>
+  <si>
+    <t>262828600178351</t>
+  </si>
+  <si>
+    <t>a38c367ced9e33d3</t>
+  </si>
+  <si>
+    <t>123242899430201</t>
+  </si>
+  <si>
+    <t>7794548121</t>
+  </si>
+  <si>
+    <t>Aisha</t>
+  </si>
+  <si>
+    <t>ArunGara36921@example.net</t>
+  </si>
+  <si>
+    <t>1989-04-16</t>
+  </si>
+  <si>
+    <t>253813470591363</t>
+  </si>
+  <si>
+    <t>9190232468</t>
+  </si>
+  <si>
+    <t>Alaknanda</t>
+  </si>
+  <si>
+    <t>EkbalKhatri58078@example.net</t>
+  </si>
+  <si>
+    <t>1984-03-16</t>
+  </si>
+  <si>
+    <t>565831687595996</t>
+  </si>
+  <si>
+    <t>57a5bb1af25ac75c</t>
+  </si>
+  <si>
+    <t>552116110746753</t>
+  </si>
+  <si>
+    <t>IDEP57162134242127XY</t>
+  </si>
+  <si>
+    <t>6489482582</t>
+  </si>
+  <si>
+    <t>Ambika</t>
+  </si>
+  <si>
+    <t>VivekRana45605@example.net</t>
+  </si>
+  <si>
+    <t>1975-09-18</t>
+  </si>
+  <si>
+    <t>076977732747272</t>
+  </si>
+  <si>
+    <t>0b7ed919b43c9d4b</t>
+  </si>
+  <si>
+    <t>250997347299103</t>
+  </si>
+  <si>
+    <t>IDEP176523468563K638</t>
+  </si>
+  <si>
+    <t>9143338093</t>
+  </si>
+  <si>
+    <t>Kamini</t>
+  </si>
+  <si>
+    <t>LalitSidhu98721@example.net</t>
+  </si>
+  <si>
+    <t>1971-04-18</t>
+  </si>
+  <si>
+    <t>217399130521466</t>
+  </si>
+  <si>
+    <t>9856bbc9f3089c35</t>
+  </si>
+  <si>
+    <t>318466280140724</t>
+  </si>
+  <si>
+    <t>IDEP751625839499L5QI</t>
+  </si>
+  <si>
+    <t>6721436102</t>
+  </si>
+  <si>
+    <t>Smriti</t>
+  </si>
+  <si>
+    <t>UmarBalasubramanian93189@example.net</t>
+  </si>
+  <si>
+    <t>1993-01-09</t>
+  </si>
+  <si>
+    <t>685070869925854</t>
+  </si>
+  <si>
+    <t>8824512d29a92de5</t>
+  </si>
+  <si>
+    <t>489240775557327</t>
+  </si>
+  <si>
+    <t>IDEP65173818222513WD</t>
+  </si>
+  <si>
+    <t>8300077153</t>
+  </si>
+  <si>
+    <t>Nutan</t>
+  </si>
+  <si>
+    <t>JavedMistry48795@example.net</t>
+  </si>
+  <si>
+    <t>1988-01-27</t>
+  </si>
+  <si>
+    <t>954386755224739</t>
+  </si>
+  <si>
+    <t>146adca9d5b1d70e</t>
+  </si>
+  <si>
+    <t>684187644186130</t>
+  </si>
+  <si>
+    <t>IDEP6517321918796XSC</t>
+  </si>
+  <si>
+    <t>7562378924</t>
+  </si>
+  <si>
+    <t>MohanPillai87222@example.net</t>
+  </si>
+  <si>
+    <t>1993-08-14</t>
+  </si>
+  <si>
+    <t>000708365572344</t>
+  </si>
+  <si>
+    <t>0a6c11554e51d51b</t>
+  </si>
+  <si>
+    <t>015099009289047</t>
+  </si>
+  <si>
+    <t>IDEP671534532284OL72</t>
   </si>
 </sst>
 </file>
@@ -2284,7 +2665,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>575</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2403,7 +2784,9 @@
       <c r="A2" t="s">
         <v>129</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>708</v>
+      </c>
       <c r="C2" t="s">
         <v>240</v>
       </c>
@@ -2851,16 +3234,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>580</v>
+        <v>706</v>
       </c>
       <c r="C2" t="s">
-        <v>581</v>
+        <v>707</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>579</v>
+        <v>705</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3079,13 +3462,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>576</v>
+        <v>638</v>
       </c>
       <c r="E2" t="s">
-        <v>577</v>
+        <v>703</v>
       </c>
       <c r="F2" t="s">
-        <v>578</v>
+        <v>704</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3632,10 +4015,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>575</v>
+        <v>702</v>
       </c>
       <c r="E2" t="s">
-        <v>577</v>
+        <v>703</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3647,7 +4030,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>579</v>
+        <v>705</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3655,9 +4038,11 @@
       <c r="K2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L2"/>
+      <c r="L2" t="s">
+        <v>708</v>
+      </c>
       <c r="M2" t="n">
-        <v>4224457.0</v>
+        <v>4233513.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3813,7 +4198,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>575</v>
+        <v>702</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3830,7 +4215,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>575</v>
+        <v>702</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3847,7 +4232,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>575</v>
+        <v>702</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3864,7 +4249,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>575</v>
+        <v>702</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3881,7 +4266,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>575</v>
+        <v>702</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3967,7 +4352,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>579</v>
+        <v>705</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4211,7 +4596,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>579</v>
+        <v>705</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4426,7 +4811,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>576</v>
+        <v>638</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4508,7 +4893,9 @@
       <c r="A2" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>708</v>
+      </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
       </c>
@@ -4804,7 +5191,9 @@
       <c r="A2" t="s">
         <v>214</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>708</v>
+      </c>
       <c r="C2">
         <v>303</v>
       </c>
@@ -4822,7 +5211,9 @@
       <c r="A3" t="s">
         <v>216</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>708</v>
+      </c>
       <c r="C3">
         <v>563</v>
       </c>
@@ -4840,7 +5231,9 @@
       <c r="A4" t="s">
         <v>223</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>708</v>
+      </c>
       <c r="C4">
         <v>590</v>
       </c>
@@ -4858,7 +5251,9 @@
       <c r="A5" t="s">
         <v>224</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>708</v>
+      </c>
       <c r="C5">
         <v>668</v>
       </c>
@@ -4876,7 +5271,9 @@
       <c r="A6" t="s">
         <v>225</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="s">
+        <v>708</v>
+      </c>
       <c r="C6">
         <v>725</v>
       </c>
@@ -4894,7 +5291,9 @@
       <c r="A7" t="s">
         <v>226</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="s">
+        <v>708</v>
+      </c>
       <c r="C7">
         <v>800</v>
       </c>
@@ -4912,7 +5311,9 @@
       <c r="A8" t="s">
         <v>229</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="s">
+        <v>708</v>
+      </c>
       <c r="C8">
         <v>725</v>
       </c>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L3_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L3_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="796">
   <si>
     <t>TestCases</t>
   </si>
@@ -2170,6 +2170,267 @@
   </si>
   <si>
     <t>IDEP671534532284OL72</t>
+  </si>
+  <si>
+    <t>8181222175</t>
+  </si>
+  <si>
+    <t>AjaySomani33375@example.net</t>
+  </si>
+  <si>
+    <t>1977-12-14</t>
+  </si>
+  <si>
+    <t>489645673034254</t>
+  </si>
+  <si>
+    <t>e37cc5682d8c7a9e</t>
+  </si>
+  <si>
+    <t>338029159759804</t>
+  </si>
+  <si>
+    <t>8662016293</t>
+  </si>
+  <si>
+    <t>Kusum</t>
+  </si>
+  <si>
+    <t>TarunDesai44402@example.net</t>
+  </si>
+  <si>
+    <t>1993-11-16</t>
+  </si>
+  <si>
+    <t>903294023790097</t>
+  </si>
+  <si>
+    <t>0c725c7d8160e17f</t>
+  </si>
+  <si>
+    <t>494529945151158</t>
+  </si>
+  <si>
+    <t>6550058819</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>YashMammen36568@example.net</t>
+  </si>
+  <si>
+    <t>1995-06-08</t>
+  </si>
+  <si>
+    <t>151380809319539</t>
+  </si>
+  <si>
+    <t>5a1537f20015bc51</t>
+  </si>
+  <si>
+    <t>589033343464871</t>
+  </si>
+  <si>
+    <t>IDEP615784246559EBPN</t>
+  </si>
+  <si>
+    <t>8731198207</t>
+  </si>
+  <si>
+    <t>DeepChaudhary81867@example.net</t>
+  </si>
+  <si>
+    <t>1979-10-29</t>
+  </si>
+  <si>
+    <t>095741906633693</t>
+  </si>
+  <si>
+    <t>7155a9d5b440c903</t>
+  </si>
+  <si>
+    <t>640146583035602</t>
+  </si>
+  <si>
+    <t>IDEP617589656184OJ7U</t>
+  </si>
+  <si>
+    <t>9796083323</t>
+  </si>
+  <si>
+    <t>NavalMahajan57824@example.net</t>
+  </si>
+  <si>
+    <t>1978-03-19</t>
+  </si>
+  <si>
+    <t>567203477362615</t>
+  </si>
+  <si>
+    <t>f4b4cb2fb9424ed4</t>
+  </si>
+  <si>
+    <t>408149558400613</t>
+  </si>
+  <si>
+    <t>IDEP167516725861IYE5</t>
+  </si>
+  <si>
+    <t>6817476332</t>
+  </si>
+  <si>
+    <t>AtulKata25222@example.net</t>
+  </si>
+  <si>
+    <t>1981-02-22</t>
+  </si>
+  <si>
+    <t>609744656926217</t>
+  </si>
+  <si>
+    <t>5ab27cb8b8702a0b</t>
+  </si>
+  <si>
+    <t>264035338444653</t>
+  </si>
+  <si>
+    <t>IDEP651716983683J7DS</t>
+  </si>
+  <si>
+    <t>7873536367</t>
+  </si>
+  <si>
+    <t>ArjunSrivastava55384@example.net</t>
+  </si>
+  <si>
+    <t>1980-05-28</t>
+  </si>
+  <si>
+    <t>560744527539477</t>
+  </si>
+  <si>
+    <t>ef7427d80ee7a18a</t>
+  </si>
+  <si>
+    <t>467294643634731</t>
+  </si>
+  <si>
+    <t>IDEP571617195713UC1N</t>
+  </si>
+  <si>
+    <t>7400192029</t>
+  </si>
+  <si>
+    <t>Neela</t>
+  </si>
+  <si>
+    <t>KushalPersaud97451@example.net</t>
+  </si>
+  <si>
+    <t>1982-12-18</t>
+  </si>
+  <si>
+    <t>561145335060129</t>
+  </si>
+  <si>
+    <t>0f4cc2b87d1f76fa</t>
+  </si>
+  <si>
+    <t>862227925902732</t>
+  </si>
+  <si>
+    <t>IDEP651718144755TE63</t>
+  </si>
+  <si>
+    <t>6426055127</t>
+  </si>
+  <si>
+    <t>Chhavi</t>
+  </si>
+  <si>
+    <t>NirmalKari63407@example.net</t>
+  </si>
+  <si>
+    <t>1971-02-03</t>
+  </si>
+  <si>
+    <t>753682125346464</t>
+  </si>
+  <si>
+    <t>03aa0c86a4ae0234</t>
+  </si>
+  <si>
+    <t>965140323032166</t>
+  </si>
+  <si>
+    <t>IDEP761519241542TCM4</t>
+  </si>
+  <si>
+    <t>8505123968</t>
+  </si>
+  <si>
+    <t>SomnathKohli94835@example.net</t>
+  </si>
+  <si>
+    <t>1982-10-18</t>
+  </si>
+  <si>
+    <t>369744547511988</t>
+  </si>
+  <si>
+    <t>7549e13fb718c357</t>
+  </si>
+  <si>
+    <t>652637832739890</t>
+  </si>
+  <si>
+    <t>IDEP576128788437TN14</t>
+  </si>
+  <si>
+    <t>6496183951</t>
+  </si>
+  <si>
+    <t>DeepeshSandhu27562@example.net</t>
+  </si>
+  <si>
+    <t>1978-08-25</t>
+  </si>
+  <si>
+    <t>227289455502696</t>
+  </si>
+  <si>
+    <t>8c41f3820ef22e94</t>
+  </si>
+  <si>
+    <t>511694395661970</t>
+  </si>
+  <si>
+    <t>IDEP1675218858568HRI</t>
+  </si>
+  <si>
+    <t>9488200421</t>
+  </si>
+  <si>
+    <t>Gayatri</t>
+  </si>
+  <si>
+    <t>LabeenSura21559@example.net</t>
+  </si>
+  <si>
+    <t>1989-03-21</t>
+  </si>
+  <si>
+    <t>595136696596199</t>
+  </si>
+  <si>
+    <t>9fd455fac336c196</t>
+  </si>
+  <si>
+    <t>018239006975563</t>
+  </si>
+  <si>
+    <t>IDEP571622812843L4QH</t>
   </si>
 </sst>
 </file>
@@ -2665,7 +2926,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>702</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2785,7 +3046,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>708</v>
+        <v>795</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -3234,16 +3495,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>706</v>
+        <v>793</v>
       </c>
       <c r="C2" t="s">
-        <v>707</v>
+        <v>794</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>705</v>
+        <v>792</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3462,13 +3723,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>638</v>
+        <v>789</v>
       </c>
       <c r="E2" t="s">
-        <v>703</v>
+        <v>790</v>
       </c>
       <c r="F2" t="s">
-        <v>704</v>
+        <v>791</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4015,10 +4276,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>702</v>
+        <v>788</v>
       </c>
       <c r="E2" t="s">
-        <v>703</v>
+        <v>790</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -4030,7 +4291,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>705</v>
+        <v>792</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -4039,10 +4300,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>708</v>
+        <v>795</v>
       </c>
       <c r="M2" t="n">
-        <v>4233513.0</v>
+        <v>4234182.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -4198,7 +4459,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>702</v>
+        <v>788</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4215,7 +4476,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>702</v>
+        <v>788</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4232,7 +4493,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>702</v>
+        <v>788</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4249,7 +4510,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>702</v>
+        <v>788</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4266,7 +4527,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>702</v>
+        <v>788</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4352,7 +4613,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>705</v>
+        <v>792</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4596,7 +4857,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>705</v>
+        <v>792</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4811,7 +5072,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>638</v>
+        <v>789</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4894,7 +5155,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>708</v>
+        <v>795</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -5192,7 +5453,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>708</v>
+        <v>795</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5212,7 +5473,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>708</v>
+        <v>795</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5232,7 +5493,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>708</v>
+        <v>795</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -5252,7 +5513,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>708</v>
+        <v>795</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5272,7 +5533,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>708</v>
+        <v>795</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5292,7 +5553,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>708</v>
+        <v>795</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5312,7 +5573,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>708</v>
+        <v>795</v>
       </c>
       <c r="C8">
         <v>725</v>
